--- a/ble.xlsx
+++ b/ble.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\pea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBDC53-058C-43AB-A1FD-ED59CB32E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF2C1D1-47E9-4B00-9F52-1385DA4E77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="2" r:id="rId2"/>
     <sheet name="prevision_trad_2019" sheetId="3" r:id="rId3"/>
     <sheet name="prevision_trad_2021" sheetId="4" r:id="rId4"/>
-    <sheet name="racine_unitaire_19" sheetId="5" r:id="rId5"/>
-    <sheet name="racine_unitaire_21" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="racine_unitaire_19" sheetId="5" r:id="rId6"/>
+    <sheet name="racine_unitaire_21" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="231">
   <si>
     <t>Mois</t>
   </si>
@@ -710,18 +711,6 @@
   </si>
   <si>
     <t>Décembre</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>moyenne</t>
@@ -771,10 +760,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +797,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Computer"/>
     </font>
   </fonts>
   <fills count="6">
@@ -967,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1001,10 +995,15 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,10 +1027,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,7 +1602,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="1620000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="1620000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8453,11 +8448,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
@@ -8471,7 +8466,7 @@
     <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8481,113 +8476,113 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="R1" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>163.75</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="24">
         <f t="shared" ref="C2:C65" si="0">LN(B2)</f>
         <v>5.0983408745153609</v>
       </c>
       <c r="E2">
         <v>2016</v>
       </c>
-      <c r="F2" s="34" cm="1">
+      <c r="F2" s="25" cm="1">
         <f t="array" ref="F2:Q2">TRANSPOSE(C2:C13)</f>
         <v>5.0983408745153609</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="25">
         <v>4.9921318225316957</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="25">
         <v>5.0288025980517048</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="25">
         <v>5.0205856249494234</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="25">
         <v>5.1044291733826164</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="25">
         <v>5.0482521576675623</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="25">
         <v>5.1119877883565437</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="25">
         <v>5.0418109115647054</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="25">
         <v>5.0782939425700704</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="25">
         <v>5.1104806290659717</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="25">
         <v>5.0875963352323836</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="25">
         <v>5.1239639794032588</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="25">
         <f>AVERAGE(_xlfn.ANCHORARRAY(F2))</f>
         <v>5.0705563197742745</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="25">
         <f>_xlfn.STDEV.S(_xlfn.ANCHORARRAY(F2))</f>
         <v>4.2796664401197511E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8601,53 +8596,53 @@
       <c r="E3">
         <v>2017</v>
       </c>
-      <c r="F3" s="34" cm="1">
+      <c r="F3" s="25" cm="1">
         <f t="array" ref="F3:Q3">TRANSPOSE(C14:C25)</f>
         <v>5.1089711948171175</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="25">
         <v>5.1489469098937679</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>5.1029105702054265</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="25">
         <v>5.1164956847957335</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="25">
         <v>5.1733208763733511</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="25">
         <v>5.0482521576675623</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="25">
         <v>5.1119877883565437</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="25">
         <v>5.0875963352323836</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="25">
         <v>5.072043922224899</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="25">
         <v>5.0689042022202315</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="25">
         <f t="shared" ref="R3:R7" si="1">AVERAGE(_xlfn.ANCHORARRAY(F3))</f>
         <v>5.1075276315697247</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="25">
         <f t="shared" ref="S3:S7" si="2">_xlfn.STDEV.S(_xlfn.ANCHORARRAY(F3))</f>
         <v>3.4996390859632839E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8661,53 +8656,53 @@
       <c r="E4" s="22">
         <v>2018</v>
       </c>
-      <c r="F4" s="34" cm="1">
+      <c r="F4" s="25" cm="1">
         <f t="array" ref="F4:Q4">TRANSPOSE(C26:C37)</f>
         <v>5.0641760610242859</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="25">
         <v>5.1164956847957335</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="25">
         <v>5.0983408745153609</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="25">
         <v>5.2081190986298882</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="25">
         <v>5.1845886012196933</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="25">
         <v>5.3095045559386014</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="25">
         <v>5.321789722733179</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="25">
         <v>5.3057893813867381</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="25">
         <v>5.2907891001272453</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="25">
         <v>5.3045479162986728</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="25">
         <v>5.3144367484279202</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="25">
         <f t="shared" si="1"/>
         <v>5.2203357261351799</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="25">
         <f t="shared" si="2"/>
         <v>9.8598475589531401E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8721,53 +8716,53 @@
       <c r="E5" s="22">
         <v>2019</v>
       </c>
-      <c r="F5" s="34" cm="1">
+      <c r="F5" s="25" cm="1">
         <f t="array" ref="F5:Q5">TRANSPOSE(C38:C49)</f>
         <v>5.3193447337401123</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="25">
         <v>5.2639846874675316</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="25">
         <v>5.2244016835978684</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="25">
         <v>5.2108513407667605</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="25">
         <v>5.2217062641761967</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="25">
         <v>5.1943447761650585</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="25">
         <v>5.1633563811139194</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="25">
         <v>5.1013896573647202</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="25">
         <v>5.1633563811139194</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="25">
         <v>5.181783550292085</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="25">
         <v>5.2230548820474896</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="25">
         <v>5.240423388129134</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="25">
         <f t="shared" si="1"/>
         <v>5.2089998104979003</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="25">
         <f t="shared" si="2"/>
         <v>5.5176172453335913E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8781,53 +8776,53 @@
       <c r="E6" s="22">
         <v>2020</v>
       </c>
-      <c r="F6" s="34" cm="1">
+      <c r="F6" s="25" cm="1">
         <f t="array" ref="F6:Q6">TRANSPOSE(C62:C73)</f>
         <v>5.4249500174814029</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="25">
         <v>5.5012582105447274</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="25">
         <v>5.3729609095438029</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="25">
         <v>5.5519901228970694</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="25">
         <v>5.36480710781687</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="25">
         <v>5.3435297093695846</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="25">
         <v>5.4082922197566088</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="25">
         <v>5.516448376038702</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="25">
         <v>5.5529595849216173</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="25">
         <v>5.6463298999081157</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="25">
         <v>5.6330022925951537</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="25">
         <v>5.6294180593673389</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="25">
         <f t="shared" si="1"/>
         <v>5.4954955425200822</v>
       </c>
-      <c r="S6" s="34">
+      <c r="S6" s="25">
         <f t="shared" si="2"/>
         <v>0.11050678377070428</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8841,53 +8836,53 @@
       <c r="E7" s="22">
         <v>2021</v>
       </c>
-      <c r="F7" s="34" cm="1">
+      <c r="F7" s="25" cm="1">
         <f t="array" ref="F7:Q7">TRANSPOSE(C51:C62)</f>
         <v>5.2337788454104652</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="25">
         <v>5.2793893566625174</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="25">
         <v>5.2768383348709129</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="25">
         <v>5.2377708666800027</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="25">
         <v>5.195730777772936</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <v>5.2081190986298882</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="25">
         <v>5.2351112906442445</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="25">
         <v>5.2870036066477635</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="25">
         <v>5.3242287483325379</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="25">
         <v>5.3482972988530575</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="25">
         <v>5.3624651863717885</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="25">
         <v>5.4249500174814029</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="25">
         <f t="shared" si="1"/>
         <v>5.284473619029793</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="25">
         <f t="shared" si="2"/>
         <v>6.9054546890419718E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8898,65 +8893,65 @@
         <f t="shared" si="0"/>
         <v>5.1119877883565437</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="25">
         <f>AVERAGE(F2:F7)</f>
         <v>5.2082602878314574</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="25">
         <f t="shared" ref="G8:Q8" si="3">AVERAGE(G2:G7)</f>
         <v>5.2170344453159947</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="25">
         <f t="shared" si="3"/>
         <v>5.1840424951308464</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="25">
         <f t="shared" si="3"/>
         <v>5.2120166487238224</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="25">
         <f t="shared" si="3"/>
         <v>5.2018813510957065</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="25">
         <f t="shared" si="3"/>
         <v>5.1920258699041888</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="25">
         <f t="shared" si="3"/>
         <v>5.2256172007224597</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="25">
         <f t="shared" si="3"/>
         <v>5.2194490720027718</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="25">
         <f t="shared" si="3"/>
         <v>5.2561026377802378</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="25">
         <f t="shared" si="3"/>
         <v>5.2775461355798097</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="25">
         <f t="shared" si="3"/>
         <v>5.280451755795065</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="25">
         <f t="shared" si="3"/>
         <v>5.300349399171548</v>
       </c>
-      <c r="R8" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="S8" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8967,67 +8962,67 @@
         <f t="shared" si="0"/>
         <v>5.0418109115647054</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="25">
         <f>_xlfn.STDEV.S(F2:F7)</f>
         <v>0.14328032361039533</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="25">
         <f t="shared" ref="G9:Q9" si="4">_xlfn.STDEV.S(G2:G7)</f>
         <v>0.17447105978356325</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="25">
         <f t="shared" si="4"/>
         <v>0.12958138904522776</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="25">
         <f t="shared" si="4"/>
         <v>0.18323737155205932</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="25">
         <f t="shared" si="4"/>
         <v>9.3597230064597275E-2</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="25">
         <f t="shared" si="4"/>
         <v>9.4121042056062199E-2</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="25">
         <f t="shared" si="4"/>
         <v>0.1160333708666153</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="25">
         <f t="shared" si="4"/>
         <v>0.18870481469599451</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="25">
         <f t="shared" si="4"/>
         <v>0.17676021981072154</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="25">
         <f t="shared" si="4"/>
         <v>0.20704823153382354</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="25">
         <f t="shared" si="4"/>
         <v>0.20761509973690412</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="25">
         <f t="shared" si="4"/>
         <v>0.20604842776077997</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="25">
         <f>AVERAGE(F2:Q7)</f>
         <v>5.2312314415878252</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="25">
         <f>_xlfn.STDEV.P(F2:Q7)</f>
         <v>0.15517271593860738</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -9039,7 +9034,7 @@
         <v>5.0782939425700704</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -9051,7 +9046,7 @@
         <v>5.1104806290659717</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -9063,7 +9058,7 @@
         <v>5.0875963352323836</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9075,19 +9070,19 @@
         <v>5.1239639794032588</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
         <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -9098,7 +9093,7 @@
         <f t="shared" si="0"/>
         <v>5.1089711948171175</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="25">
         <f>DEVSQ(F8:Q8)*6</f>
         <v>9.5145844847124031E-2</v>
       </c>
@@ -9106,21 +9101,21 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" s="34">
+        <v>225</v>
+      </c>
+      <c r="J14" s="25">
         <f>G14/H14</f>
         <v>8.649622258829457E-3</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="N14" s="34">
+      <c r="M14" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="25">
         <f>J14/J16</f>
         <v>1.7905875007687089</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -9131,7 +9126,7 @@
         <f t="shared" si="0"/>
         <v>5.1489469098937679</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <f>DEVSQ(R2:R7)*12</f>
         <v>1.3728280070307997</v>
       </c>
@@ -9139,21 +9134,21 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" s="34">
+        <v>226</v>
+      </c>
+      <c r="J15" s="25">
         <f t="shared" ref="J15:J16" si="5">G15/H15</f>
         <v>0.27456560140615993</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="N15" s="34">
+      <c r="M15" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="25">
         <f>J15/J16</f>
         <v>56.838751948625045</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -9164,7 +9159,7 @@
         <f t="shared" si="0"/>
         <v>5.1029105702054265</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="25">
         <f>SUM(F19:Q24)</f>
         <v>0.26568331568906128</v>
       </c>
@@ -9173,14 +9168,14 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="34">
+        <v>227</v>
+      </c>
+      <c r="J16" s="25">
         <f t="shared" si="5"/>
         <v>4.8306057398011144E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -9192,7 +9187,7 @@
         <v>5.1254509685248371</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -9204,7 +9199,7 @@
         <v>5.1164956847957335</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9215,57 +9210,57 @@
         <f t="shared" si="0"/>
         <v>5.1733208763733511</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="24">
         <f>(F2-F$8-$R2+$R$9)^2</f>
         <v>2.576141945078539E-3</v>
       </c>
-      <c r="G19" s="33">
-        <f t="shared" ref="G19:R19" si="6">(G2-G$8-$R2+$R$9)^2</f>
+      <c r="G19" s="24">
+        <f t="shared" ref="G19:Q19" si="6">(G2-G$8-$R2+$R$9)^2</f>
         <v>4.1251718809474681E-3</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="24">
         <f t="shared" si="6"/>
         <v>2.9541667913533133E-5</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="24">
         <f t="shared" si="6"/>
         <v>9.4592550542531349E-4</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="24">
         <f t="shared" si="6"/>
         <v>3.9971406607299644E-3</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="24">
         <f t="shared" si="6"/>
         <v>2.8565764568694535E-4</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="24">
         <f t="shared" si="6"/>
         <v>2.2132987774312594E-3</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="24">
         <f t="shared" si="6"/>
         <v>2.8774467937680968E-4</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="24">
         <f t="shared" si="6"/>
         <v>2.9355933733725143E-4</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="24">
         <f t="shared" si="6"/>
         <v>4.0837016617665999E-5</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="24">
         <f t="shared" si="6"/>
         <v>1.0355716275832992E-3</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="24">
         <f t="shared" si="6"/>
         <v>2.4681346182666228E-4</v>
       </c>
-      <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -9276,56 +9271,56 @@
         <f t="shared" si="0"/>
         <v>5.1254509685248371</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="24">
         <f t="shared" ref="F20:Q20" si="7">(F3-F$8-$R3+$R$9)^2</f>
         <v>5.9607840637371321E-4</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="24">
         <f t="shared" si="7"/>
         <v>3.0931699999236268E-3</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="24">
         <f t="shared" si="7"/>
         <v>1.8123654003444022E-3</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="24">
         <f t="shared" si="7"/>
         <v>1.3792406864614483E-3</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="24">
         <f t="shared" si="7"/>
         <v>1.4682801380030718E-3</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="24">
         <f t="shared" si="7"/>
         <v>1.1024751463725897E-2</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="24">
         <f t="shared" si="7"/>
         <v>5.5401756965504977E-4</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="24">
         <f t="shared" si="7"/>
         <v>2.2555949576757938E-3</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="24">
         <f t="shared" si="7"/>
         <v>4.1661052961669613E-4</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="24">
         <f t="shared" si="7"/>
         <v>4.3885312347130938E-3</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="24">
         <f t="shared" si="7"/>
         <v>7.1747716059088707E-3</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="24">
         <f t="shared" si="7"/>
         <v>1.1608206458292967E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -9336,56 +9331,56 @@
         <f t="shared" si="0"/>
         <v>5.0482521576675623</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="24">
         <f t="shared" ref="F21:Q21" si="8">(F4-F$8-$R4+$R$9)^2</f>
         <v>1.7739179556834798E-2</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="24">
         <f t="shared" si="8"/>
         <v>8.0358755289946342E-3</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="24">
         <f t="shared" si="8"/>
         <v>5.5959234472318488E-3</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="24">
         <f t="shared" si="8"/>
         <v>5.7259435647123592E-3</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="24">
         <f t="shared" si="8"/>
         <v>2.935555539209688E-4</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="24">
         <f t="shared" si="8"/>
         <v>1.1960854048125588E-5</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="24">
         <f t="shared" si="8"/>
         <v>8.983830485404248E-3</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="24">
         <f t="shared" si="8"/>
         <v>1.2822474626342341E-2</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="24">
         <f t="shared" si="8"/>
         <v>3.6702343456530406E-3</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="24">
         <f t="shared" si="8"/>
         <v>5.8267587214630575E-4</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="24">
         <f t="shared" si="8"/>
         <v>1.2244313829378026E-3</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="24">
         <f t="shared" si="8"/>
         <v>6.2415352225495338E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -9396,56 +9391,56 @@
         <f t="shared" si="0"/>
         <v>5.1119877883565437</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="24">
         <f t="shared" ref="F22:Q22" si="9">(F5-F$8-$R5+$R$9)^2</f>
         <v>1.7773176386291237E-2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="24">
         <f t="shared" si="9"/>
         <v>4.7861315851976801E-3</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="24">
         <f t="shared" si="9"/>
         <v>3.9176106928102859E-3</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="24">
         <f t="shared" si="9"/>
         <v>4.4378997033819628E-4</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="24">
         <f t="shared" si="9"/>
         <v>1.7687529075580716E-3</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="24">
         <f t="shared" si="9"/>
         <v>6.027288842127607E-4</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="24">
         <f t="shared" si="9"/>
         <v>1.6023359334588572E-3</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="24">
         <f t="shared" si="9"/>
         <v>9.1829640997466242E-3</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="24">
         <f t="shared" si="9"/>
         <v>4.9723124201789745E-3</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="24">
         <f t="shared" si="9"/>
         <v>5.4068012252389257E-3</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="24">
         <f t="shared" si="9"/>
         <v>1.2365942911714445E-3</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="24">
         <f t="shared" si="9"/>
         <v>1.4208662800026155E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -9456,56 +9451,56 @@
         <f t="shared" si="0"/>
         <v>5.0875963352323836</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="24">
         <f t="shared" ref="F23:Q23" si="10">(F6-F$8-$R6+$R$9)^2</f>
         <v>2.2633208029072317E-3</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="24">
         <f t="shared" si="10"/>
         <v>3.9838819882800545E-4</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="24">
         <f t="shared" si="10"/>
         <v>5.6769724770647035E-3</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="24">
         <f t="shared" si="10"/>
         <v>5.7319091965435205E-3</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="24">
         <f t="shared" si="10"/>
         <v>1.026946000744608E-2</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="24">
         <f t="shared" si="10"/>
         <v>1.2714876566074913E-2</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="24">
         <f t="shared" si="10"/>
         <v>6.6567782849761723E-3</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="24">
         <f t="shared" si="10"/>
         <v>1.0715935222387336E-3</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="24">
         <f t="shared" si="10"/>
         <v>1.0622936240115113E-3</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="24">
         <f t="shared" si="10"/>
         <v>1.0924360036423388E-2</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="24">
         <f t="shared" si="10"/>
         <v>7.7944947582447585E-3</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="24">
         <f t="shared" si="10"/>
         <v>4.1996309013408633E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -9516,56 +9511,56 @@
         <f t="shared" si="0"/>
         <v>5.072043922224899</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="24">
         <f t="shared" ref="F24:Q24" si="11">(F7-F$8-$R7+$R$9)^2</f>
         <v>7.6859909830591106E-4</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="24">
         <f t="shared" si="11"/>
         <v>8.3041919215224669E-5</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="24">
         <f t="shared" si="11"/>
         <v>1.5644922011920392E-3</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="24">
         <f t="shared" si="11"/>
         <v>7.5558791669229656E-4</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="24">
         <f t="shared" si="11"/>
         <v>3.527498843402318E-3</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="24">
         <f t="shared" si="11"/>
         <v>1.3800443907239391E-3</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="24">
         <f t="shared" si="11"/>
         <v>1.9138951616735915E-3</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="24">
         <f t="shared" si="11"/>
         <v>2.0484356870695093E-4</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="24">
         <f t="shared" si="11"/>
         <v>2.2153146483284657E-4</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="24">
         <f t="shared" si="11"/>
         <v>3.0656458483996454E-4</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="24">
         <f t="shared" si="11"/>
         <v>8.2778500694418984E-4</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="24">
         <f t="shared" si="11"/>
         <v>5.0920270830957428E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -9576,20 +9571,20 @@
         <f t="shared" si="0"/>
         <v>5.0689042022202315</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -9600,20 +9595,20 @@
         <f t="shared" si="0"/>
         <v>5.0641760610242859</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -9624,20 +9619,20 @@
         <f t="shared" si="0"/>
         <v>5.1164956847957335</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -9648,20 +9643,20 @@
         <f t="shared" si="0"/>
         <v>5.0983408745153609</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9672,20 +9667,20 @@
         <f t="shared" si="0"/>
         <v>5.1254509685248371</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -9697,7 +9692,7 @@
         <v>5.2081190986298882</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9709,7 +9704,7 @@
         <v>5.1845886012196933</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -9721,7 +9716,7 @@
         <v>5.3095045559386014</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -9733,7 +9728,7 @@
         <v>5.321789722733179</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -9745,7 +9740,7 @@
         <v>5.3057893813867381</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -9757,7 +9752,7 @@
         <v>5.2907891001272453</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -9769,7 +9764,7 @@
         <v>5.3045479162986728</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -9781,7 +9776,7 @@
         <v>5.3144367484279202</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -9793,7 +9788,7 @@
         <v>5.3193447337401123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -9805,7 +9800,7 @@
         <v>5.2639846874675316</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -9817,7 +9812,7 @@
         <v>5.2244016835978684</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -9829,7 +9824,7 @@
         <v>5.2108513407667605</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -9841,7 +9836,7 @@
         <v>5.2217062641761967</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -9853,7 +9848,7 @@
         <v>5.1943447761650585</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -9865,7 +9860,7 @@
         <v>5.1633563811139194</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -9877,7 +9872,7 @@
         <v>5.1013896573647202</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -9889,7 +9884,7 @@
         <v>5.1633563811139194</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -9901,7 +9896,7 @@
         <v>5.181783550292085</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -9913,7 +9908,7 @@
         <v>5.2230548820474896</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -9925,7 +9920,7 @@
         <v>5.240423388129134</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -9937,7 +9932,7 @@
         <v>5.2522734280466299</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -9949,7 +9944,7 @@
         <v>5.2337788454104652</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -9961,7 +9956,7 @@
         <v>5.2793893566625174</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -9973,7 +9968,7 @@
         <v>5.2768383348709129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -9985,7 +9980,7 @@
         <v>5.2377708666800027</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -9997,7 +9992,7 @@
         <v>5.195730777772936</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -10009,7 +10004,7 @@
         <v>5.2081190986298882</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -10021,7 +10016,7 @@
         <v>5.2351112906442445</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -10033,7 +10028,7 @@
         <v>5.2870036066477635</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -10045,7 +10040,7 @@
         <v>5.3242287483325379</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -10057,7 +10052,7 @@
         <v>5.3482972988530575</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -10069,7 +10064,7 @@
         <v>5.3624651863717885</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -10081,7 +10076,7 @@
         <v>5.4249500174814029</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -10093,7 +10088,7 @@
         <v>5.5012582105447274</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -10105,7 +10100,7 @@
         <v>5.3729609095438029</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -10117,7 +10112,7 @@
         <v>5.5519901228970694</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -10129,7 +10124,7 @@
         <v>5.36480710781687</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -10141,7 +10136,7 @@
         <v>5.3435297093695846</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -10153,7 +10148,7 @@
         <v>5.4082922197566088</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -10165,7 +10160,7 @@
         <v>5.516448376038702</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -10177,7 +10172,7 @@
         <v>5.5529595849216173</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -10189,7 +10184,7 @@
         <v>5.6463298999081157</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -10201,7 +10196,7 @@
         <v>5.6330022925951537</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -10213,7 +10208,7 @@
         <v>5.6294180593673389</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -10225,7 +10220,7 @@
         <v>5.5834963087816991</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -10237,7 +10232,7 @@
         <v>5.7761031362358271</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -10249,7 +10244,7 @@
         <v>5.9121507403882561</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -10261,7 +10256,7 @@
         <v>5.9933377914896626</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -10273,7 +10268,7 @@
         <v>5.9718993916131415</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -10285,7 +10280,7 @@
         <v>5.8586471852171167</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -10297,7 +10292,7 @@
         <v>5.8377304471659395</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -10309,7 +10304,7 @@
         <v>5.8058876975933549</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -10321,7 +10316,7 @@
         <v>5.8770352563569457</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -10333,7 +10328,7 @@
         <v>5.8643411507787899</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -10345,7 +10340,7 @@
         <v>5.7884299487164856</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -10369,15 +10364,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="E1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:19">
       <c r="E1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
         <v>205</v>
@@ -10416,341 +10411,341 @@
         <v>216</v>
       </c>
       <c r="R1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="5:19" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="5:19">
       <c r="E2">
         <v>2016</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="25">
         <v>5.0983408745153609</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="25">
         <v>4.9921318225316957</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="25">
         <v>5.0288025980517048</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="25">
         <v>5.0205856249494234</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="25">
         <v>5.1044291733826164</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="25">
         <v>5.0482521576675623</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="25">
         <v>5.1119877883565437</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="25">
         <v>5.0418109115647054</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="25">
         <v>5.0782939425700704</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="25">
         <v>5.1104806290659717</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="25">
         <v>5.0875963352323836</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="25">
         <v>5.1239639794032588</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="25">
         <f>AVERAGE(F2:Q2)</f>
         <v>5.0705563197742745</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="25">
         <f>_xlfn.STDEV.S(F2:Q2)</f>
         <v>4.2796664401197511E-2</v>
       </c>
     </row>
-    <row r="3" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:19">
       <c r="E3">
         <v>2017</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="25">
         <v>5.1089711948171175</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="25">
         <v>5.1489469098937679</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>5.1029105702054265</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="25">
         <v>5.1164956847957335</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="25">
         <v>5.1733208763733511</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="25">
         <v>5.0482521576675623</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="25">
         <v>5.1119877883565437</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="25">
         <v>5.0875963352323836</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="25">
         <v>5.072043922224899</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="25">
         <v>5.0689042022202315</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="25">
         <f t="shared" ref="R3:R5" si="0">AVERAGE(F3:Q3)</f>
         <v>5.1075276315697247</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="25">
         <f t="shared" ref="S3:S5" si="1">_xlfn.STDEV.S(F3:Q3)</f>
         <v>3.4996390859632839E-2</v>
       </c>
     </row>
-    <row r="4" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:19">
       <c r="E4">
         <v>2018</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="25">
         <v>5.0641760610242859</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="25">
         <v>5.1164956847957335</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="25">
         <v>5.0983408745153609</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="25">
         <v>5.1254509685248371</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="25">
         <v>5.2081190986298882</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="25">
         <v>5.1845886012196933</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="25">
         <v>5.3095045559386014</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="25">
         <v>5.321789722733179</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="25">
         <v>5.3057893813867381</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="25">
         <v>5.2907891001272453</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="25">
         <v>5.3045479162986728</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="25">
         <v>5.3144367484279202</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="25">
         <f t="shared" si="0"/>
         <v>5.2203357261351799</v>
       </c>
-      <c r="S4" s="34">
+      <c r="S4" s="25">
         <f t="shared" si="1"/>
         <v>9.8598475589531401E-2</v>
       </c>
     </row>
-    <row r="5" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:19">
       <c r="E5">
         <v>2019</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="25">
         <v>5.3193447337401123</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="25">
         <v>5.2639846874675316</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="25">
         <v>5.2244016835978684</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="25">
         <v>5.2108513407667605</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="25">
         <v>5.2217062641761967</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="25">
         <v>5.1943447761650585</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="25">
         <v>5.1633563811139194</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="25">
         <v>5.1013896573647202</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="25">
         <v>5.1633563811139194</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="25">
         <v>5.181783550292085</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="25">
         <v>5.2230548820474896</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="25">
         <v>5.240423388129134</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="25">
         <f t="shared" si="0"/>
         <v>5.2089998104979003</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="25">
         <f t="shared" si="1"/>
         <v>5.5176172453335913E-2</v>
       </c>
     </row>
-    <row r="6" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:19">
       <c r="E6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="34">
+        <v>217</v>
+      </c>
+      <c r="F6" s="25">
         <f>AVERAGE(F2:F5)</f>
         <v>5.1477082160242187</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="25">
         <f t="shared" ref="G6:Q6" si="2">AVERAGE(G2:G5)</f>
         <v>5.1303897761721817</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="25">
         <f t="shared" si="2"/>
         <v>5.1136139315925906</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="25">
         <f t="shared" si="2"/>
         <v>5.1205847256914652</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
         <v>5.1626875552461087</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="25">
         <f t="shared" si="2"/>
         <v>5.1501266028564157</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="25">
         <f t="shared" si="2"/>
         <v>5.1775749234834763</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="25">
         <f t="shared" si="2"/>
         <v>5.1283106123325419</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="25">
         <f t="shared" si="2"/>
         <v>5.1648568733568183</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="25">
         <f t="shared" si="2"/>
         <v>5.1676624036794214</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="25">
         <f t="shared" si="2"/>
         <v>5.1718107639508615</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="25">
         <f t="shared" si="2"/>
         <v>5.1869320795451364</v>
       </c>
-      <c r="R6" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="5:19">
       <c r="E7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="34">
+        <v>218</v>
+      </c>
+      <c r="F7" s="25">
         <f>_xlfn.STDEV.S(F2:F5)</f>
         <v>0.11600920416389766</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="25">
         <f t="shared" ref="G7:Q7" si="3">_xlfn.STDEV.S(G2:G5)</f>
         <v>0.11180380890352094</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="25">
         <f t="shared" si="3"/>
         <v>8.1270569722039929E-2</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="25">
         <f t="shared" si="3"/>
         <v>7.7878629043307376E-2</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="25">
         <f t="shared" si="3"/>
         <v>6.0758980381678068E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <f t="shared" si="3"/>
         <v>6.845741520210169E-2</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="25">
         <f t="shared" si="3"/>
         <v>9.0602012195366552E-2</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="25">
         <f t="shared" si="3"/>
         <v>0.13171997870997809</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="25">
         <f t="shared" si="3"/>
         <v>0.10025385184908021</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="25">
         <f t="shared" si="3"/>
         <v>9.1359948964375742E-2</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="25">
         <f t="shared" si="3"/>
         <v>0.11149081272353055</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="25">
         <f t="shared" si="3"/>
         <v>0.11107703354314837</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="25">
         <f>AVERAGE(F2:Q5)</f>
         <v>5.1518548719942689</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="25">
         <f>_xlfn.STDEV.P(F2:Q5)</f>
         <v>8.8081454534618339E-2</v>
       </c>
     </row>
-    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:19">
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>165</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -10760,7 +10755,7 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:19">
       <c r="F11" s="22"/>
       <c r="G11" s="22">
         <f>DEVSQ(F6:Q6)*4</f>
@@ -10770,7 +10765,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J11" s="22">
         <f>G11/H11</f>
@@ -10778,10 +10773,10 @@
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="N11" s="34">
+      <c r="M11" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="25">
         <f>J11/J13</f>
         <v>0.69864569963891554</v>
       </c>
@@ -10789,7 +10784,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:19">
       <c r="F12" s="22"/>
       <c r="G12" s="22">
         <f>DEVSQ(R2:R5)*12</f>
@@ -10799,7 +10794,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" ref="J12:J13" si="4">G12/H12</f>
@@ -10807,10 +10802,10 @@
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="N12" s="34">
+      <c r="M12" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="25">
         <f>J12/J13</f>
         <v>20.15758680965401</v>
       </c>
@@ -10818,9 +10813,9 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:19">
       <c r="F13" s="22"/>
-      <c r="G13" s="33">
+      <c r="G13" s="24">
         <f>SUM(F16:Q19)</f>
         <v>0.10824202367428912</v>
       </c>
@@ -10829,7 +10824,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J13" s="22">
         <f t="shared" si="4"/>
@@ -10843,7 +10838,7 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:19">
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -10857,7 +10852,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:19">
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -10871,233 +10866,233 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17" s="33">
-        <f>(F2-F$6-$R2+$R$7)^2</f>
+    <row r="16" spans="5:19">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="6:17">
+      <c r="F17" s="24">
+        <f t="shared" ref="F17:Q17" si="5">(F2-F$6-$R2+$R$7)^2</f>
         <v>1.0196022174790106E-3</v>
       </c>
-      <c r="G17" s="33">
-        <f>(G2-G$6-$R2+$R$7)^2</f>
+      <c r="G17" s="24">
+        <f t="shared" si="5"/>
         <v>3.2443734101806885E-3</v>
       </c>
-      <c r="H17" s="33">
-        <f>(H2-H$6-$R2+$R$7)^2</f>
+      <c r="H17" s="24">
+        <f t="shared" si="5"/>
         <v>1.2339632608402674E-5</v>
       </c>
-      <c r="I17" s="33">
-        <f>(I2-I$6-$R2+$R$7)^2</f>
+      <c r="I17" s="24">
+        <f t="shared" si="5"/>
         <v>3.4971051502544464E-4</v>
       </c>
-      <c r="J17" s="33">
-        <f>(J2-J$6-$R2+$R$7)^2</f>
+      <c r="J17" s="24">
+        <f t="shared" si="5"/>
         <v>5.3084945005664214E-4</v>
       </c>
-      <c r="K17" s="33">
-        <f>(K2-K$6-$R2+$R$7)^2</f>
+      <c r="K17" s="24">
+        <f t="shared" si="5"/>
         <v>4.2336737146593572E-4</v>
       </c>
-      <c r="L17" s="33">
-        <f>(L2-L$6-$R2+$R$7)^2</f>
+      <c r="L17" s="24">
+        <f t="shared" si="5"/>
         <v>2.4684862707215752E-4</v>
       </c>
-      <c r="M17" s="33">
-        <f>(M2-M$6-$R2+$R$7)^2</f>
+      <c r="M17" s="24">
+        <f t="shared" si="5"/>
         <v>2.7051946216719343E-5</v>
       </c>
-      <c r="N17" s="33">
-        <f>(N2-N$6-$R2+$R$7)^2</f>
+      <c r="N17" s="24">
+        <f t="shared" si="5"/>
         <v>2.771368169409296E-5</v>
       </c>
-      <c r="O17" s="33">
-        <f>(O2-O$6-$R2+$R$7)^2</f>
+      <c r="O17" s="24">
+        <f t="shared" si="5"/>
         <v>5.8161896212353774E-4</v>
       </c>
-      <c r="P17" s="33">
-        <f>(P2-P$6-$R2+$R$7)^2</f>
+      <c r="P17" s="24">
+        <f t="shared" si="5"/>
         <v>8.50233575440752E-6</v>
       </c>
-      <c r="Q17" s="33">
-        <f>(Q2-Q$6-$R2+$R$7)^2</f>
+      <c r="Q17" s="24">
+        <f t="shared" si="5"/>
         <v>3.3600547338814016E-4</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F18" s="33">
-        <f>(F3-F$6-$R3+$R$7)^2</f>
+    <row r="18" spans="6:17">
+      <c r="F18" s="24">
+        <f t="shared" ref="F18:Q18" si="6">(F3-F$6-$R3+$R$7)^2</f>
         <v>3.1250550899069819E-5</v>
       </c>
-      <c r="G18" s="33">
-        <f>(G3-G$6-$R3+$R$7)^2</f>
+      <c r="G18" s="24">
+        <f t="shared" si="6"/>
         <v>3.954444511750521E-3</v>
       </c>
-      <c r="H18" s="33">
-        <f>(H3-H$6-$R3+$R$7)^2</f>
+      <c r="H18" s="24">
+        <f t="shared" si="6"/>
         <v>1.1305652415203741E-3</v>
       </c>
-      <c r="I18" s="33">
-        <f>(I3-I$6-$R3+$R$7)^2</f>
+      <c r="I18" s="24">
+        <f t="shared" si="6"/>
         <v>2.4199987950468786E-3</v>
       </c>
-      <c r="J18" s="33">
-        <f>(J3-J$6-$R3+$R$7)^2</f>
+      <c r="J18" s="24">
+        <f t="shared" si="6"/>
         <v>3.4768451332302426E-6</v>
       </c>
-      <c r="K18" s="33">
-        <f>(K3-K$6-$R3+$R$7)^2</f>
+      <c r="K18" s="24">
+        <f t="shared" si="6"/>
         <v>4.5591548449494456E-3</v>
       </c>
-      <c r="L18" s="33">
-        <f>(L3-L$6-$R3+$R$7)^2</f>
+      <c r="L18" s="24">
+        <f t="shared" si="6"/>
         <v>6.0788757526166925E-5</v>
       </c>
-      <c r="M18" s="33">
-        <f>(M3-M$6-$R3+$R$7)^2</f>
+      <c r="M18" s="24">
+        <f t="shared" si="6"/>
         <v>1.27671967109589E-3</v>
       </c>
-      <c r="N18" s="33">
-        <f>(N3-N$6-$R3+$R$7)^2</f>
+      <c r="N18" s="24">
+        <f t="shared" si="6"/>
         <v>7.2963108755934392E-5</v>
       </c>
-      <c r="O18" s="33">
-        <f>(O3-O$6-$R3+$R$7)^2</f>
+      <c r="O18" s="24">
+        <f t="shared" si="6"/>
         <v>1.2772638284213671E-3</v>
       </c>
-      <c r="P18" s="33">
-        <f>(P3-P$6-$R3+$R$7)^2</f>
+      <c r="P18" s="24">
+        <f t="shared" si="6"/>
         <v>3.0735493924602137E-3</v>
       </c>
-      <c r="Q18" s="33">
-        <f>(Q3-Q$6-$R3+$R$7)^2</f>
+      <c r="Q18" s="24">
+        <f t="shared" si="6"/>
         <v>5.4317838795187867E-3</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F19" s="33">
-        <f>(F4-F$6-$R4+$R$7)^2</f>
+    <row r="19" spans="6:17">
+      <c r="F19" s="24">
+        <f t="shared" ref="F19:Q19" si="7">(F4-F$6-$R4+$R$7)^2</f>
         <v>2.3107954948054264E-2</v>
       </c>
-      <c r="G19" s="33">
-        <f>(G4-G$6-$R4+$R$7)^2</f>
+      <c r="G19" s="24">
+        <f t="shared" si="7"/>
         <v>6.7856316489879036E-3</v>
       </c>
-      <c r="H19" s="33">
-        <f>(H4-H$6-$R4+$R$7)^2</f>
+      <c r="H19" s="24">
+        <f t="shared" si="7"/>
         <v>7.0147176443361922E-3</v>
       </c>
-      <c r="I19" s="33">
-        <f>(I4-I$6-$R4+$R$7)^2</f>
+      <c r="I19" s="24">
+        <f t="shared" si="7"/>
         <v>4.0468187718092803E-3</v>
       </c>
-      <c r="J19" s="33">
-        <f>(J4-J$6-$R4+$R$7)^2</f>
+      <c r="J19" s="24">
+        <f t="shared" si="7"/>
         <v>5.3127072637881596E-4</v>
       </c>
-      <c r="K19" s="33">
-        <f>(K4-K$6-$R4+$R$7)^2</f>
+      <c r="K19" s="24">
+        <f t="shared" si="7"/>
         <v>1.1572825484194148E-3</v>
       </c>
-      <c r="L19" s="33">
-        <f>(L4-L$6-$R4+$R$7)^2</f>
+      <c r="L19" s="24">
+        <f t="shared" si="7"/>
         <v>4.02574746956629E-3</v>
       </c>
-      <c r="M19" s="33">
-        <f>(M4-M$6-$R4+$R$7)^2</f>
+      <c r="M19" s="24">
+        <f t="shared" si="7"/>
         <v>1.5624564067972142E-2</v>
       </c>
-      <c r="N19" s="33">
-        <f>(N4-N$6-$R4+$R$7)^2</f>
+      <c r="N19" s="24">
+        <f t="shared" si="7"/>
         <v>5.2492421512527181E-3</v>
       </c>
-      <c r="O19" s="33">
-        <f>(O4-O$6-$R4+$R$7)^2</f>
+      <c r="O19" s="24">
+        <f t="shared" si="7"/>
         <v>2.9861680814319961E-3</v>
       </c>
-      <c r="P19" s="33">
-        <f>(P4-P$6-$R4+$R$7)^2</f>
+      <c r="P19" s="24">
+        <f t="shared" si="7"/>
         <v>4.1288718592541081E-3</v>
       </c>
-      <c r="Q19" s="33">
-        <f>(Q4-Q$6-$R4+$R$7)^2</f>
+      <c r="Q19" s="24">
+        <f t="shared" si="7"/>
         <v>3.483810706682933E-3</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="33">
-        <f>(F5-F$6-$R5+$R$7)^2</f>
+    <row r="20" spans="6:17">
+      <c r="F20" s="24">
+        <f t="shared" ref="F20:Q20" si="8">(F5-F$6-$R5+$R$7)^2</f>
         <v>1.3108321710517727E-2</v>
       </c>
-      <c r="G20" s="33">
-        <f>(G5-G$6-$R5+$R$7)^2</f>
+      <c r="G20" s="24">
+        <f t="shared" si="8"/>
         <v>5.844598339854499E-3</v>
       </c>
-      <c r="H20" s="33">
-        <f>(H5-H$6-$R5+$R$7)^2</f>
+      <c r="H20" s="24">
+        <f t="shared" si="8"/>
         <v>2.8775514403724233E-3</v>
       </c>
-      <c r="I20" s="33">
-        <f>(I5-I$6-$R5+$R$7)^2</f>
+      <c r="I20" s="24">
+        <f t="shared" si="8"/>
         <v>1.0970454589179148E-3</v>
       </c>
-      <c r="J20" s="33">
-        <f>(J5-J$6-$R5+$R$7)^2</f>
+      <c r="J20" s="24">
+        <f t="shared" si="8"/>
         <v>3.5110156110635159E-6</v>
       </c>
-      <c r="K20" s="33">
-        <f>(K5-K$6-$R5+$R$7)^2</f>
+      <c r="K20" s="24">
+        <f t="shared" si="8"/>
         <v>1.6710125840636546E-4</v>
       </c>
-      <c r="L20" s="33">
-        <f>(L5-L$6-$R5+$R$7)^2</f>
+      <c r="L20" s="24">
+        <f t="shared" si="8"/>
         <v>5.0927464023379013E-3</v>
       </c>
-      <c r="M20" s="33">
-        <f>(M5-M$6-$R5+$R$7)^2</f>
+      <c r="M20" s="24">
+        <f t="shared" si="8"/>
         <v>7.0670744451537008E-3</v>
       </c>
-      <c r="N20" s="33">
-        <f>(N5-N$6-$R5+$R$7)^2</f>
+      <c r="N20" s="24">
+        <f t="shared" si="8"/>
         <v>3.4392865474460791E-3</v>
       </c>
-      <c r="O20" s="33">
-        <f>(O5-O$6-$R5+$R$7)^2</f>
+      <c r="O20" s="24">
+        <f t="shared" si="8"/>
         <v>1.8510466686772998E-3</v>
       </c>
-      <c r="P20" s="33">
-        <f>(P5-P$6-$R5+$R$7)^2</f>
+      <c r="P20" s="24">
+        <f t="shared" si="8"/>
         <v>3.4819681475705856E-5</v>
       </c>
-      <c r="Q20" s="33">
-        <f>(Q5-Q$6-$R5+$R$7)^2</f>
+      <c r="Q20" s="24">
+        <f t="shared" si="8"/>
         <v>1.3349011589642513E-5</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+    <row r="23" spans="6:17">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11114,65 +11109,65 @@
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="K2" s="25" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="S2" s="25" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="S2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11219,7 +11214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -11272,7 +11267,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -11325,7 +11320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -11378,7 +11373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -11431,7 +11426,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -11481,7 +11476,7 @@
         <v>58.863903891875466</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -11540,7 +11535,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -11590,7 +11585,7 @@
         <v>222.32094437038674</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -11640,7 +11635,7 @@
         <v>116.32225123871279</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -11689,15 +11684,15 @@
         <f t="shared" si="4"/>
         <v>2.768896419524348</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -11750,7 +11745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -11803,7 +11798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -11856,7 +11851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -11907,7 +11902,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -11958,7 +11953,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -11990,7 +11985,7 @@
         <v>165.6538676383399</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -12031,7 +12026,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -12069,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -12107,7 +12102,7 @@
         <v>9.5620999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -12145,7 +12140,7 @@
         <v>4.4632999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -12177,7 +12172,7 @@
         <v>169.35239769638196</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -12208,15 +12203,15 @@
         <f t="shared" si="5"/>
         <v>170.1019544816329</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -12251,7 +12246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -12286,7 +12281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -12321,7 +12316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -12356,7 +12351,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -12391,7 +12386,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -12423,7 +12418,7 @@
         <v>174.66947998849147</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -12470,7 +12465,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -12502,7 +12497,7 @@
         <v>176.21908227605235</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -12549,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -12596,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -12628,7 +12623,7 @@
         <v>178.56930032574081</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -12672,7 +12667,7 @@
         <v>5.1518550000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -12716,7 +12711,7 @@
         <v>8.9013999999999996E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -12760,7 +12755,7 @@
         <v>-2.5964230000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -12804,7 +12799,7 @@
         <v>-2.5184570000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -12848,7 +12843,7 @@
         <v>-2.5669599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -12892,7 +12887,7 @@
         <v>0.524474</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -12924,7 +12919,7 @@
         <v>184.17576163122882</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -12956,7 +12951,7 @@
         <v>184.99092689423841</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -12988,7 +12983,7 @@
         <v>185.8097000934938</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -13020,7 +13015,7 @@
         <v>186.63209719778661</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -13052,7 +13047,7 @@
         <v>187.45813424658596</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -13084,7 +13079,7 @@
         <v>188.28782735035264</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -13116,7 +13111,7 @@
         <v>189.1211926908519</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -13148,7 +13143,7 @@
         <v>189.95824652147053</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -13180,7 +13175,7 @@
         <v>190.79900516753054</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
@@ -13212,7 +13207,7 @@
         <v>191.6434850266163</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
@@ -13244,7 +13239,7 @@
         <v>192.49170256888206</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
@@ -13276,7 +13271,7 @@
         <v>193.34367433738169</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
@@ -13308,7 +13303,7 @@
         <v>194.19941694838832</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
@@ -13340,7 +13335,7 @@
         <v>195.0589470917196</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
@@ -13372,7 +13367,7 @@
         <v>195.92228153106203</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
@@ -13404,7 +13399,7 @@
         <v>196.78943710429914</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
@@ -13436,7 +13431,7 @@
         <v>197.66043072383849</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
@@ -13468,7 +13463,7 @@
         <v>198.53527937694304</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
@@ -13500,7 +13495,7 @@
         <v>199.41400012605899</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
@@ -13532,7 +13527,7 @@
         <v>200.29661010915783</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
@@ -13564,7 +13559,7 @@
         <v>201.18312654005737</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
@@ -13596,7 +13591,7 @@
         <v>202.07356670876692</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
@@ -13619,7 +13614,7 @@
       <c r="H64" s="17"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
@@ -13642,7 +13637,7 @@
       <c r="H65" s="17"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
@@ -13665,7 +13660,7 @@
       <c r="H66" s="17"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
@@ -13688,7 +13683,7 @@
       <c r="H67" s="17"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
@@ -13711,7 +13706,7 @@
       <c r="H68" s="17"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
@@ -13734,7 +13729,7 @@
       <c r="H69" s="17"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
@@ -13757,7 +13752,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
@@ -13780,7 +13775,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
@@ -13803,7 +13798,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
@@ -13826,7 +13821,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
@@ -13849,7 +13844,7 @@
       <c r="H74" s="17"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
@@ -13872,7 +13867,7 @@
       <c r="H75" s="17"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
@@ -13895,7 +13890,7 @@
       <c r="H76" s="17"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
@@ -13918,7 +13913,7 @@
       <c r="H77" s="17"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
@@ -13941,7 +13936,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
@@ -13964,7 +13959,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
@@ -13987,7 +13982,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
@@ -14010,7 +14005,7 @@
       <c r="H81" s="17"/>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
@@ -14033,7 +14028,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="16" t="s">
         <v>82</v>
       </c>
@@ -14056,7 +14051,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="16" t="s">
         <v>83</v>
       </c>
@@ -14079,7 +14074,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="16" t="s">
         <v>84</v>
       </c>
@@ -14102,7 +14097,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="16" t="s">
         <v>85</v>
       </c>
@@ -14125,7 +14120,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="16" t="s">
         <v>86</v>
       </c>
@@ -14169,68 +14164,68 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" ht="18.75">
+      <c r="A1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="S2" s="24" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="S2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -14277,7 +14272,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -14330,7 +14325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -14383,7 +14378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -14436,7 +14431,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -14489,7 +14484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -14539,7 +14534,7 @@
         <v>23101.707998527629</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -14598,7 +14593,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -14654,7 +14649,7 @@
         <v>0.236817</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -14710,7 +14705,7 @@
         <v>5.7350999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -14759,15 +14754,15 @@
         <f t="shared" si="4"/>
         <v>12191.762504583923</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -14820,7 +14815,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -14873,7 +14868,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -14926,7 +14921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -14977,7 +14972,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -15028,7 +15023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -15060,7 +15055,7 @@
         <v>163.13680339805444</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -15101,7 +15096,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -15139,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -15177,7 +15172,7 @@
         <v>0.20979900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -15215,7 +15210,7 @@
         <v>5.398E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -15246,15 +15241,15 @@
         <f t="shared" si="5"/>
         <v>168.31019462640523</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -15289,7 +15284,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -15324,7 +15319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -15359,7 +15354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -15394,7 +15389,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -15429,7 +15424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -15461,7 +15456,7 @@
         <v>174.73527625997875</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -15508,7 +15503,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -15540,7 +15535,7 @@
         <v>176.93101972695149</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -15587,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -15634,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -15666,7 +15661,7 @@
         <v>180.27647804067766</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -15710,7 +15705,7 @@
         <v>5.2288329999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -15754,7 +15749,7 @@
         <v>0.154562</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -15798,7 +15793,7 @@
         <v>-2.1093989999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -15842,7 +15837,7 @@
         <v>-2.0461589999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -15886,7 +15881,7 @@
         <v>-2.0842230000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -15930,7 +15925,7 @@
         <v>0.47342800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -15968,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -16000,7 +15995,7 @@
         <v>189.51021453763093</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -16032,7 +16027,7 @@
         <v>190.69720074373251</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -16064,7 +16059,7 @@
         <v>191.89162156889438</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -16096,7 +16091,7 @@
         <v>193.09352357942433</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -16128,7 +16123,7 @@
         <v>194.30295363328804</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -16160,7 +16155,7 @@
         <v>195.51995888195083</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -16192,7 +16187,7 @@
         <v>196.74458677220073</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -16224,7 +16219,7 @@
         <v>197.9768850480142</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -16256,7 +16251,7 @@
         <v>199.21690175240289</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
@@ -16288,7 +16283,7 @@
         <v>200.46468522929339</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -16320,7 +16315,7 @@
         <v>201.72028412541735</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
@@ -16352,7 +16347,7 @@
         <v>202.98374739219469</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
@@ -16384,7 +16379,7 @@
         <v>204.25512428765748</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -16416,7 +16411,7 @@
         <v>205.53446437835677</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -16448,7 +16443,7 @@
         <v>206.82181754130053</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -16480,7 +16475,7 @@
         <v>208.11723396590509</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -16512,7 +16507,7 @@
         <v>209.42076415593664</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
@@ -16544,7 +16539,7 @@
         <v>210.73245893149709</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -16576,7 +16571,7 @@
         <v>212.05236943099098</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
@@ -16608,7 +16603,7 @@
         <v>213.38054711312517</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -16640,7 +16635,7 @@
         <v>214.71704375892153</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -16672,7 +16667,7 @@
         <v>216.06191147372064</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
@@ -16704,7 +16699,7 @@
         <v>217.41520268923094</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
@@ -16736,7 +16731,7 @@
         <v>218.77697016555473</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -16768,7 +16763,7 @@
         <v>220.14726699326292</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -16800,7 +16795,7 @@
         <v>221.5261465954496</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -16832,7 +16827,7 @@
         <v>222.91366272982143</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -16864,7 +16859,7 @@
         <v>224.30986949079966</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -16896,7 +16891,7 @@
         <v>225.71482131161406</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -16928,7 +16923,7 @@
         <v>227.12857296644302</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -16960,7 +16955,7 @@
         <v>228.5511795725327</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -16992,7 +16987,7 @@
         <v>229.98269659235299</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -17024,7 +17019,7 @@
         <v>231.42317983576658</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -17065,7 +17060,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
@@ -17106,7 +17101,7 @@
         <v>280.7771328</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
@@ -17147,7 +17142,7 @@
         <v>282.50612419999999</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="13" t="s">
         <v>77</v>
       </c>
@@ -17188,7 +17183,7 @@
         <v>284.24576259999998</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
@@ -17229,7 +17224,7 @@
         <v>285.99611340000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="13" t="s">
         <v>79</v>
       </c>
@@ -17270,7 +17265,7 @@
         <v>287.75724270000001</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="13" t="s">
         <v>80</v>
       </c>
@@ -17311,7 +17306,7 @@
         <v>289.52921670000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
@@ -17352,7 +17347,7 @@
         <v>291.31210240000001</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
@@ -17393,7 +17388,7 @@
         <v>293.1059669</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
@@ -17434,7 +17429,7 @@
         <v>294.91087779999998</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
@@ -17475,7 +17470,7 @@
         <v>296.72690310000002</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="13" t="s">
         <v>85</v>
       </c>
@@ -17516,7 +17511,7 @@
         <v>298.55411129999999</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="13" t="s">
         <v>86</v>
       </c>
@@ -17574,71 +17569,90 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84774ECF-BE06-44EF-8B7C-B42B0C699369}">
+  <dimension ref="M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="13" spans="13:13">
+      <c r="M13" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:17">
+      <c r="B1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="M2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="M3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -17655,12 +17669,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="M5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6">
         <v>-2.67198</v>
       </c>
@@ -17686,7 +17700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7">
         <v>-4.165756</v>
       </c>
@@ -17694,7 +17708,7 @@
         <v>-3.5777230000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="B8">
         <v>-3.508508</v>
       </c>
@@ -17717,7 +17731,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9">
         <v>-3.1842299999999999</v>
       </c>
@@ -17740,19 +17754,19 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:17">
+      <c r="B10" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="G10" s="30" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="M10">
         <v>3</v>
       </c>
@@ -17769,7 +17783,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -17798,7 +17812,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" t="s">
         <v>163</v>
       </c>
@@ -17828,7 +17842,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>165</v>
       </c>
@@ -17859,7 +17873,7 @@
         <v>0.4511</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" t="s">
         <v>166</v>
       </c>
@@ -17875,7 +17889,7 @@
         <v>1.6017762686406483</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" t="s">
         <v>168</v>
       </c>
@@ -17895,7 +17909,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>171</v>
       </c>
@@ -17909,21 +17923,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="G17" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -17934,7 +17948,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -17945,7 +17959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>165</v>
       </c>
@@ -17957,7 +17971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>179</v>
       </c>
@@ -17969,7 +17983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>168</v>
       </c>
@@ -17980,7 +17994,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>171</v>
       </c>
@@ -17988,17 +18002,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="G24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="G25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="G27" t="s">
         <v>185</v>
       </c>
@@ -18009,7 +18023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="G28" t="s">
         <v>188</v>
       </c>
@@ -18020,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="G29" t="s">
         <v>171</v>
       </c>
@@ -18028,29 +18042,29 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+    <row r="32" spans="2:10">
+      <c r="B32" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18071,7 +18085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:R33"/>
@@ -18080,63 +18094,63 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="N2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="G3" s="29" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="N3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -18153,12 +18167,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="N5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>-2.7268349999999999</v>
       </c>
@@ -18184,7 +18198,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>-4.0925469999999997</v>
       </c>
@@ -18192,7 +18206,7 @@
         <v>-3.5256180000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8">
         <v>-3.4743629999999999</v>
       </c>
@@ -18215,7 +18229,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>-3.1644990000000002</v>
       </c>
@@ -18238,19 +18252,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:18">
+      <c r="B10" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="G10" s="30" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="N10">
         <v>3</v>
       </c>
@@ -18267,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -18296,7 +18310,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>163</v>
       </c>
@@ -18326,7 +18340,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>165</v>
       </c>
@@ -18357,7 +18371,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" t="s">
         <v>166</v>
       </c>
@@ -18373,7 +18387,7 @@
         <v>0.77361128840413695</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>168</v>
       </c>
@@ -18393,7 +18407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>171</v>
       </c>
@@ -18407,21 +18421,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="G17" s="30" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="G17" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>161</v>
       </c>
@@ -18433,7 +18447,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -18444,7 +18458,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>165</v>
       </c>
@@ -18456,7 +18470,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>179</v>
       </c>
@@ -18468,7 +18482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>168</v>
       </c>
@@ -18479,7 +18493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>171</v>
       </c>
@@ -18487,17 +18501,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="G24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="G25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="G27" t="s">
         <v>185</v>
       </c>
@@ -18508,7 +18522,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="G28" t="s">
         <v>188</v>
       </c>
@@ -18519,29 +18533,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+    <row r="32" spans="2:10">
+      <c r="B32" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18562,15 +18576,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>202</v>
       </c>
@@ -18584,7 +18598,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -18602,7 +18616,7 @@
         <v>7710.6608512299445</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18627,7 +18641,7 @@
         <v>8319.967544631505</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18652,7 +18666,7 @@
         <v>6805.235287822501</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18677,7 +18691,7 @@
         <v>6886.4317048168223</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -18702,7 +18716,7 @@
         <v>8187.9740107406842</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18727,7 +18741,7 @@
         <v>9650.4146476025708</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -18752,7 +18766,7 @@
         <v>9213.466522937053</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -18777,7 +18791,7 @@
         <v>8278.5826522407406</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -18802,7 +18816,7 @@
         <v>6558.8526875241905</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -18827,7 +18841,7 @@
         <v>5400.3002944469617</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -18852,7 +18866,7 @@
         <v>4690.4332955779946</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -18877,7 +18891,7 @@
         <v>4288.5127621992133</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -18893,7 +18907,7 @@
         <v>7165.9026884808491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -18909,7 +18923,7 @@
         <v>84.651654965988996</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -18921,7 +18935,7 @@
         <v>164.49999999999983</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -18933,7 +18947,7 @@
         <v>168.24999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -18945,7 +18959,7 @@
         <v>166.7500000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -18957,7 +18971,7 @@
         <v>176.49999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -18969,7 +18983,7 @@
         <v>168.24999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -18981,7 +18995,7 @@
         <v>155.75000000000011</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -18993,7 +19007,7 @@
         <v>166.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -19005,7 +19019,7 @@
         <v>161.99999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -19017,7 +19031,7 @@
         <v>159.49999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -19029,7 +19043,7 @@
         <v>158.99999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -19041,7 +19055,7 @@
         <v>158.25000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -19053,7 +19067,7 @@
         <v>166.7500000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -19065,7 +19079,7 @@
         <v>163.74999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -19077,7 +19091,7 @@
         <v>168.24999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -19089,7 +19103,7 @@
         <v>182.75000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -19101,7 +19115,7 @@
         <v>178.49999999999991</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -19113,7 +19127,7 @@
         <v>202.25000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -19125,7 +19139,7 @@
         <v>204.75000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -19137,7 +19151,7 @@
         <v>201.50000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -19149,7 +19163,7 @@
         <v>198.50000000000023</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -19161,7 +19175,7 @@
         <v>201.25000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -19173,7 +19187,7 @@
         <v>203.25000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -19185,7 +19199,7 @@
         <v>204.2500000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -19197,7 +19211,7 @@
         <v>193.25000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -19209,7 +19223,7 @@
         <v>185.74999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -19221,7 +19235,7 @@
         <v>183.25000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -19233,7 +19247,7 @@
         <v>185.25000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -19245,7 +19259,7 @@
         <v>180.25000000000017</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -19257,7 +19271,7 @@
         <v>174.75000000000011</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -19269,7 +19283,7 @@
         <v>164.25000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -19281,7 +19295,7 @@
         <v>174.75000000000011</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -19293,7 +19307,7 @@
         <v>177.99999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -19305,7 +19319,7 @@
         <v>185.49999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -19317,7 +19331,7 @@
         <v>188.74999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -19329,7 +19343,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -19341,7 +19355,7 @@
         <v>187.49999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -19353,7 +19367,7 @@
         <v>196.25000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -19365,7 +19379,7 @@
         <v>195.75000000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -19377,7 +19391,7 @@
         <v>188.24999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -19389,7 +19403,7 @@
         <v>180.50000000000009</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -19401,7 +19415,7 @@
         <v>182.75000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -19413,7 +19427,7 @@
         <v>187.75000000000023</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -19425,7 +19439,7 @@
         <v>197.75000000000023</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -19437,7 +19451,7 @@
         <v>205.25000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -19449,7 +19463,7 @@
         <v>210.2500000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -19461,7 +19475,7 @@
         <v>213.2500000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -19473,7 +19487,7 @@
         <v>227.00000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -19485,7 +19499,7 @@
         <v>245.00000000000031</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -19497,7 +19511,7 @@
         <v>215.50000000000009</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -19509,7 +19523,7 @@
         <v>257.75000000000023</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -19521,7 +19535,7 @@
         <v>213.75000000000009</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -19529,11 +19543,11 @@
         <v>5.3435297093695846</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C98" si="3">EXP(B67)</f>
+        <f t="shared" ref="C67:C85" si="3">EXP(B67)</f>
         <v>209.24999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -19545,7 +19559,7 @@
         <v>223.25000000000009</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -19557,7 +19571,7 @@
         <v>248.74999999999994</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -19569,7 +19583,7 @@
         <v>258.00000000000023</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -19581,7 +19595,7 @@
         <v>283.25</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -19593,7 +19607,7 @@
         <v>279.49999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -19605,7 +19619,7 @@
         <v>278.50000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -19617,7 +19631,7 @@
         <v>278.81036870662075</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -19629,7 +19643,7 @@
         <v>278.71385610231613</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -19641,7 +19655,7 @@
         <v>278.74384999681018</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -19653,7 +19667,7 @@
         <v>278.7345268683984</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -19665,7 +19679,7 @@
         <v>278.73742464975379</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -19677,7 +19691,7 @@
         <v>278.73652395571503</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -19689,7 +19703,7 @@
         <v>278.73680390964012</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -19701,7 +19715,7 @@
         <v>278.73671689414806</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -19713,7 +19727,7 @@
         <v>278.73674394035555</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -19725,7 +19739,7 @@
         <v>278.73673553383571</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -19737,7 +19751,7 @@
         <v>278.73673814675556</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>

--- a/ble.xlsx
+++ b/ble.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\pea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF2C1D1-47E9-4B00-9F52-1385DA4E77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6732CFB-D0AD-46D0-8426-4EFB8283EB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,9 +671,6 @@
     <t>lble_21</t>
   </si>
   <si>
-    <t>ble_21</t>
-  </si>
-  <si>
     <t>ar(1)</t>
   </si>
   <si>
@@ -753,6 +750,9 @@
   </si>
   <si>
     <t>tend</t>
+  </si>
+  <si>
+    <t>dlble_19</t>
   </si>
 </sst>
 </file>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8448,8 +8448,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B85"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8477,49 +8477,49 @@
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="R1" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -8894,7 +8894,7 @@
         <v>5.1119877883565437</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" s="25">
         <f>AVERAGE(F2:F7)</f>
@@ -8945,10 +8945,10 @@
         <v>5.300349399171548</v>
       </c>
       <c r="R8" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="S8" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="S8" s="26" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -8963,7 +8963,7 @@
         <v>5.0418109115647054</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="25">
         <f>_xlfn.STDEV.S(F2:F7)</f>
@@ -9070,16 +9070,16 @@
         <v>5.1239639794032588</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -9101,14 +9101,14 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J14" s="25">
         <f>G14/H14</f>
         <v>8.649622258829457E-3</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N14" s="25">
         <f>J14/J16</f>
@@ -9134,14 +9134,14 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" ref="J15:J16" si="5">G15/H15</f>
         <v>0.27456560140615993</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N15" s="25">
         <f>J15/J16</f>
@@ -9168,7 +9168,7 @@
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="5"/>
@@ -10372,49 +10372,49 @@
   <sheetData>
     <row r="1" spans="5:19">
       <c r="E1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
         <v>205</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>206</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>207</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>208</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>209</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>210</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>211</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>212</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>213</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>214</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" t="s">
-        <v>216</v>
-      </c>
       <c r="R1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="5:19">
@@ -10615,7 +10615,7 @@
     </row>
     <row r="6" spans="5:19">
       <c r="E6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="25">
         <f>AVERAGE(F2:F5)</f>
@@ -10666,15 +10666,15 @@
         <v>5.1869320795451364</v>
       </c>
       <c r="R6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="5:19">
       <c r="E7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="25">
         <f>_xlfn.STDEV.S(F2:F5)</f>
@@ -10736,16 +10736,16 @@
     <row r="10" spans="5:19">
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>165</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -10765,7 +10765,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J11" s="22">
         <f>G11/H11</f>
@@ -10774,7 +10774,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N11" s="25">
         <f>J11/J13</f>
@@ -10794,7 +10794,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J12" s="22">
         <f t="shared" ref="J12:J13" si="4">G12/H12</f>
@@ -10803,7 +10803,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N12" s="25">
         <f>J12/J13</f>
@@ -10824,7 +10824,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J13" s="22">
         <f t="shared" si="4"/>
@@ -17592,62 +17592,62 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="M2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="M3" t="s">
         <v>148</v>
       </c>
@@ -17755,18 +17755,18 @@
       </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="M10">
         <v>3</v>
       </c>
@@ -17924,18 +17924,18 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
@@ -18043,42 +18043,42 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B32:J33"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B32:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
@@ -18090,62 +18090,62 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="N2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="G3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="N3" t="s">
         <v>192</v>
       </c>
@@ -18253,18 +18253,18 @@
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="N10">
         <v>3</v>
       </c>
@@ -18422,18 +18422,18 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
@@ -18534,42 +18534,42 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B32:J33"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B32:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
@@ -18580,28 +18580,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>5.09834087451536</v>
+      </c>
       <c r="G2" s="22" t="s">
         <v>75</v>
       </c>
@@ -18621,11 +18629,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.9921318225316957</v>
+        <v>4.9921318225316904</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C34" si="1">EXP(B3)</f>
-        <v>147.24999999999994</v>
+        <f>B3-B2</f>
+        <v>-0.10620905198366959</v>
+      </c>
+      <c r="D3">
+        <f>C3+B2</f>
+        <v>4.9921318225316904</v>
+      </c>
+      <c r="E3">
+        <f>EXP(D3)</f>
+        <v>147.24999999999918</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>76</v>
@@ -18646,11 +18662,19 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.0288025980517048</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>152.75000000000003</v>
+        <v>5.0288025980517004</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" ref="C4:C67" si="1">B4-B3</f>
+        <v>3.6670775520009968E-2</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D67" si="2">C4+B3</f>
+        <v>5.0288025980517004</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E67" si="3">EXP(D4)</f>
+        <v>152.74999999999935</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>77</v>
@@ -18671,11 +18695,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5.0205856249494234</v>
-      </c>
-      <c r="C5">
+        <v>5.0205856249494198</v>
+      </c>
+      <c r="C5" s="22">
         <f t="shared" si="1"/>
-        <v>151.49999999999994</v>
+        <v>-8.2169731022805337E-3</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0205856249494198</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="3"/>
+        <v>151.4999999999994</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>78</v>
@@ -18696,11 +18728,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5.1044291733826164</v>
-      </c>
-      <c r="C6">
+        <v>5.1044291733826102</v>
+      </c>
+      <c r="C6" s="22">
         <f t="shared" si="1"/>
-        <v>164.74999999999997</v>
+        <v>8.3843548433190307E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1044291733826102</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="3"/>
+        <v>164.74999999999895</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>79</v>
@@ -18721,11 +18761,19 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.0482521576675632</v>
-      </c>
-      <c r="C7">
+        <v>5.0482521576675596</v>
+      </c>
+      <c r="C7" s="22">
         <f t="shared" si="1"/>
-        <v>155.75000000000011</v>
+        <v>-5.6177015715050516E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0482521576675596</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="3"/>
+        <v>155.74999999999955</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>80</v>
@@ -18746,11 +18794,19 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>5.1119877883565437</v>
-      </c>
-      <c r="C8">
+        <v>5.1119877883565401</v>
+      </c>
+      <c r="C8" s="22">
         <f t="shared" si="1"/>
-        <v>166.00000000000006</v>
+        <v>6.3735630688980471E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1119877883565401</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="3"/>
+        <v>165.99999999999949</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>81</v>
@@ -18771,11 +18827,19 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5.0418109115647063</v>
-      </c>
-      <c r="C9">
+        <v>5.0418109115647001</v>
+      </c>
+      <c r="C9" s="22">
         <f t="shared" si="1"/>
-        <v>154.75000000000011</v>
+        <v>-7.0176876791840037E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0418109115647001</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="3"/>
+        <v>154.74999999999918</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>82</v>
@@ -18796,11 +18860,19 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5.0782939425700713</v>
-      </c>
-      <c r="C10">
+        <v>5.0782939425700704</v>
+      </c>
+      <c r="C10" s="22">
         <f t="shared" si="1"/>
-        <v>160.50000000000011</v>
+        <v>3.6483031005370314E-2</v>
+      </c>
+      <c r="D10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0782939425700704</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="3"/>
+        <v>160.49999999999997</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>83</v>
@@ -18821,11 +18893,19 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>5.1104806290659717</v>
-      </c>
-      <c r="C11">
+        <v>5.1104806290659699</v>
+      </c>
+      <c r="C11" s="22">
         <f t="shared" si="1"/>
-        <v>165.74999999999997</v>
+        <v>3.2186686495899508E-2</v>
+      </c>
+      <c r="D11" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1104806290659699</v>
+      </c>
+      <c r="E11" s="22">
+        <f t="shared" si="3"/>
+        <v>165.74999999999966</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>84</v>
@@ -18846,11 +18926,19 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>5.0875963352323836</v>
-      </c>
-      <c r="C12">
+        <v>5.0875963352323801</v>
+      </c>
+      <c r="C12" s="22">
         <f t="shared" si="1"/>
-        <v>161.99999999999994</v>
+        <v>-2.2884293833589808E-2</v>
+      </c>
+      <c r="D12" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0875963352323801</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="3"/>
+        <v>161.99999999999935</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>85</v>
@@ -18871,11 +18959,19 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>5.1239639794032588</v>
-      </c>
-      <c r="C13">
+        <v>5.1239639794032499</v>
+      </c>
+      <c r="C13" s="22">
         <f t="shared" si="1"/>
-        <v>167.99999999999997</v>
+        <v>3.6367644170869795E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1239639794032499</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="3"/>
+        <v>167.99999999999849</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>86</v>
@@ -18896,11 +18992,19 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>5.1089711948171184</v>
-      </c>
-      <c r="C14">
+        <v>5.1089711948171104</v>
+      </c>
+      <c r="C14" s="22">
         <f t="shared" si="1"/>
-        <v>165.50000000000014</v>
+        <v>-1.4992784586139507E-2</v>
+      </c>
+      <c r="D14" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1089711948171104</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="3"/>
+        <v>165.49999999999881</v>
       </c>
       <c r="J14">
         <f>AVERAGE(J2:J13)</f>
@@ -18912,11 +19016,19 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>5.1489469098937679</v>
-      </c>
-      <c r="C15">
+        <v>5.1489469098937599</v>
+      </c>
+      <c r="C15" s="22">
         <f t="shared" si="1"/>
-        <v>172.25</v>
+        <v>3.9975715076649543E-2</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1489469098937599</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="3"/>
+        <v>172.24999999999861</v>
       </c>
       <c r="J15">
         <f>SQRT(J14)</f>
@@ -18928,839 +19040,1291 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>5.1029105702054256</v>
-      </c>
-      <c r="C16">
+        <v>5.1029105702054203</v>
+      </c>
+      <c r="C16" s="22">
         <f t="shared" si="1"/>
-        <v>164.49999999999983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-4.6036339688339645E-2</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1029105702054203</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="3"/>
+        <v>164.49999999999895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>5.1254509685248371</v>
-      </c>
-      <c r="C17">
+        <v>5.12545096852483</v>
+      </c>
+      <c r="C17" s="22">
         <f t="shared" si="1"/>
-        <v>168.24999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2.2540398319409682E-2</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="2"/>
+        <v>5.12545096852483</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="3"/>
+        <v>168.24999999999878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>5.1164956847957344</v>
-      </c>
-      <c r="C18">
+        <v>5.1164956847957299</v>
+      </c>
+      <c r="C18" s="22">
         <f t="shared" si="1"/>
-        <v>166.7500000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-8.9552837291000387E-3</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1164956847957299</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="3"/>
+        <v>166.74999999999946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>5.1733208763733511</v>
-      </c>
-      <c r="C19">
+        <v>5.1733208763733503</v>
+      </c>
+      <c r="C19" s="22">
         <f t="shared" si="1"/>
-        <v>176.49999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>5.6825191577620338E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1733208763733503</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="3"/>
+        <v>176.4999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>5.1254509685248371</v>
-      </c>
-      <c r="C20">
+        <v>5.12545096852483</v>
+      </c>
+      <c r="C20" s="22">
         <f t="shared" si="1"/>
-        <v>168.24999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-4.7869907848520299E-2</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="2"/>
+        <v>5.12545096852483</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="3"/>
+        <v>168.24999999999878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>5.0482521576675632</v>
-      </c>
-      <c r="C21">
+        <v>5.0482521576675596</v>
+      </c>
+      <c r="C21" s="22">
         <f t="shared" si="1"/>
-        <v>155.75000000000011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-7.7198810857270317E-2</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0482521576675596</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="3"/>
+        <v>155.74999999999955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>5.1119877883565437</v>
-      </c>
-      <c r="C22">
+        <v>5.1119877883565401</v>
+      </c>
+      <c r="C22" s="22">
         <f t="shared" si="1"/>
-        <v>166.00000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>6.3735630688980471E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1119877883565401</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="3"/>
+        <v>165.99999999999949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>5.0875963352323836</v>
-      </c>
-      <c r="C23">
+        <v>5.0875963352323801</v>
+      </c>
+      <c r="C23" s="22">
         <f t="shared" si="1"/>
-        <v>161.99999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-2.4391453124160023E-2</v>
+      </c>
+      <c r="D23" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0875963352323801</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="3"/>
+        <v>161.99999999999935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>5.072043922224899</v>
-      </c>
-      <c r="C24">
+        <v>5.0720439222248901</v>
+      </c>
+      <c r="C24" s="22">
         <f t="shared" si="1"/>
-        <v>159.49999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-1.5552413007489996E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0720439222248901</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="3"/>
+        <v>159.49999999999855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>5.0689042022202306</v>
-      </c>
-      <c r="C25">
+        <v>5.0689042022202297</v>
+      </c>
+      <c r="C25" s="22">
         <f t="shared" si="1"/>
-        <v>158.99999999999986</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-3.1397200046603402E-3</v>
+      </c>
+      <c r="D25" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0689042022202297</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="3"/>
+        <v>158.99999999999972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>5.0641760610242859</v>
-      </c>
-      <c r="C26">
+        <v>5.0641760610242796</v>
+      </c>
+      <c r="C26" s="22">
         <f t="shared" si="1"/>
-        <v>158.25000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-4.7281411959501085E-3</v>
+      </c>
+      <c r="D26" s="22">
+        <f t="shared" si="2"/>
+        <v>5.0641760610242796</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="3"/>
+        <v>158.24999999999906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>5.1164956847957344</v>
-      </c>
-      <c r="C27">
+        <v>5.1164956847957299</v>
+      </c>
+      <c r="C27" s="22">
         <f t="shared" si="1"/>
-        <v>166.7500000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>5.2319623771450274E-2</v>
+      </c>
+      <c r="D27" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1164956847957299</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="3"/>
+        <v>166.74999999999946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>5.0983408745153609</v>
-      </c>
-      <c r="C28">
+        <v>5.09834087451536</v>
+      </c>
+      <c r="C28" s="22">
         <f t="shared" si="1"/>
-        <v>163.74999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-1.8154810280369915E-2</v>
+      </c>
+      <c r="D28" s="22">
+        <f t="shared" si="2"/>
+        <v>5.09834087451536</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="3"/>
+        <v>163.7499999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>5.1254509685248371</v>
-      </c>
-      <c r="C29">
+        <v>5.12545096852483</v>
+      </c>
+      <c r="C29" s="22">
         <f t="shared" si="1"/>
-        <v>168.24999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>2.7110094009469954E-2</v>
+      </c>
+      <c r="D29" s="22">
+        <f t="shared" si="2"/>
+        <v>5.12545096852483</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="3"/>
+        <v>168.24999999999878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>5.2081190986298882</v>
-      </c>
-      <c r="C30">
+        <v>5.2081190986298802</v>
+      </c>
+      <c r="C30" s="22">
         <f t="shared" si="1"/>
-        <v>182.75000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>8.2668130105050253E-2</v>
+      </c>
+      <c r="D30" s="22">
+        <f t="shared" si="2"/>
+        <v>5.2081190986298802</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="3"/>
+        <v>182.74999999999861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>5.1845886012196933</v>
-      </c>
-      <c r="C31">
+        <v>5.1845886012196898</v>
+      </c>
+      <c r="C31" s="22">
         <f t="shared" si="1"/>
-        <v>178.49999999999991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-2.3530497410190421E-2</v>
+      </c>
+      <c r="D31" s="22">
+        <f t="shared" si="2"/>
+        <v>5.1845886012196898</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="3"/>
+        <v>178.49999999999929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>5.3095045559386014</v>
-      </c>
-      <c r="C32">
+        <v>5.3095045559385996</v>
+      </c>
+      <c r="C32" s="22">
         <f t="shared" si="1"/>
-        <v>202.25000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.12491595471890982</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" si="2"/>
+        <v>5.3095045559385996</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="3"/>
+        <v>202.24999999999972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>5.321789722733179</v>
-      </c>
-      <c r="C33">
+        <v>5.3217897227331701</v>
+      </c>
+      <c r="C33" s="22">
         <f t="shared" si="1"/>
-        <v>204.75000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>1.2285166794570479E-2</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="2"/>
+        <v>5.3217897227331701</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="3"/>
+        <v>204.74999999999821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>5.3057893813867381</v>
-      </c>
-      <c r="C34">
+        <v>5.3057893813867301</v>
+      </c>
+      <c r="C34" s="22">
         <f t="shared" si="1"/>
-        <v>201.50000000000009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-1.6000341346440017E-2</v>
+      </c>
+      <c r="D34" s="22">
+        <f t="shared" si="2"/>
+        <v>5.3057893813867301</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="3"/>
+        <v>201.49999999999847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>5.2907891001272462</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:C66" si="2">EXP(B35)</f>
-        <v>198.50000000000023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>5.29078910012724</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="1"/>
+        <v>-1.5000281259490045E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="2"/>
+        <v>5.29078910012724</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="3"/>
+        <v>198.49999999999898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>5.3045479162986728</v>
-      </c>
-      <c r="C36">
+        <v>5.3045479162986702</v>
+      </c>
+      <c r="C36" s="22">
+        <f t="shared" si="1"/>
+        <v>1.3758816171430155E-2</v>
+      </c>
+      <c r="D36" s="22">
         <f t="shared" si="2"/>
-        <v>201.25000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>5.3045479162986702</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="3"/>
+        <v>201.24999999999949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
         <v>5.3144367484279202</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="22">
+        <f t="shared" si="1"/>
+        <v>9.8888321292500692E-3</v>
+      </c>
+      <c r="D37" s="22">
         <f t="shared" si="2"/>
+        <v>5.3144367484279202</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="3"/>
         <v>203.25000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>5.3193447337401132</v>
-      </c>
-      <c r="C38">
+        <v>5.3193447337401096</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" si="1"/>
+        <v>4.907985312189389E-3</v>
+      </c>
+      <c r="D38" s="22">
         <f t="shared" si="2"/>
-        <v>204.2500000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>5.3193447337401096</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="3"/>
+        <v>204.24999999999946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>5.2639846874675316</v>
-      </c>
-      <c r="C39">
+        <v>5.2639846874675298</v>
+      </c>
+      <c r="C39" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.5360046272579844E-2</v>
+      </c>
+      <c r="D39" s="22">
         <f t="shared" si="2"/>
-        <v>193.25000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>5.2639846874675298</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="3"/>
+        <v>193.24999999999969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>5.2244016835978684</v>
-      </c>
-      <c r="C40">
+        <v>5.2244016835978604</v>
+      </c>
+      <c r="C40" s="22">
+        <f t="shared" si="1"/>
+        <v>-3.9583003869669398E-2</v>
+      </c>
+      <c r="D40" s="22">
         <f t="shared" si="2"/>
-        <v>185.74999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>5.2244016835978604</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="3"/>
+        <v>185.74999999999849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>5.2108513407667614</v>
-      </c>
-      <c r="C41">
+        <v>5.2108513407667596</v>
+      </c>
+      <c r="C41" s="22">
+        <f t="shared" si="1"/>
+        <v>-1.3550342831100792E-2</v>
+      </c>
+      <c r="D41" s="22">
         <f t="shared" si="2"/>
-        <v>183.25000000000009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>5.2108513407667596</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="shared" si="3"/>
+        <v>183.24999999999977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>5.2217062641761967</v>
-      </c>
-      <c r="C42">
+        <v>5.2217062641761904</v>
+      </c>
+      <c r="C42" s="22">
+        <f t="shared" si="1"/>
+        <v>1.0854923409430839E-2</v>
+      </c>
+      <c r="D42" s="22">
         <f t="shared" si="2"/>
-        <v>185.25000000000009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>5.2217062641761904</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="3"/>
+        <v>185.24999999999892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>5.1943447761650594</v>
-      </c>
-      <c r="C43">
+        <v>5.1943447761650496</v>
+      </c>
+      <c r="C43" s="22">
+        <f t="shared" si="1"/>
+        <v>-2.73614880111408E-2</v>
+      </c>
+      <c r="D43" s="22">
         <f t="shared" si="2"/>
-        <v>180.25000000000017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>5.1943447761650496</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="3"/>
+        <v>180.24999999999841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
         <v>5.1633563811139203</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="22">
+        <f t="shared" si="1"/>
+        <v>-3.098839505112938E-2</v>
+      </c>
+      <c r="D44" s="22">
         <f t="shared" si="2"/>
+        <v>5.1633563811139203</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" si="3"/>
         <v>174.75000000000011</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
         <v>5.1013896573647202</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="22">
+        <f t="shared" si="1"/>
+        <v>-6.1966723749200092E-2</v>
+      </c>
+      <c r="D45" s="22">
         <f t="shared" si="2"/>
+        <v>5.1013896573647202</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="3"/>
         <v>164.25000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
         <v>5.1633563811139203</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="22">
+        <f t="shared" si="1"/>
+        <v>6.1966723749200092E-2</v>
+      </c>
+      <c r="D46" s="22">
         <f t="shared" si="2"/>
+        <v>5.1633563811139203</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="3"/>
         <v>174.75000000000011</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>5.181783550292085</v>
-      </c>
-      <c r="C47">
+        <v>5.1817835502920797</v>
+      </c>
+      <c r="C47" s="22">
+        <f t="shared" si="1"/>
+        <v>1.8427169178159453E-2</v>
+      </c>
+      <c r="D47" s="22">
         <f t="shared" si="2"/>
-        <v>177.99999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>5.1817835502920797</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="3"/>
+        <v>177.99999999999903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
         <v>5.2230548820474896</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="22">
+        <f t="shared" si="1"/>
+        <v>4.1271331755409868E-2</v>
+      </c>
+      <c r="D48" s="22">
         <f t="shared" si="2"/>
+        <v>5.2230548820474896</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="3"/>
         <v>185.49999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>5.240423388129134</v>
-      </c>
-      <c r="C49">
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="C49" s="22">
+        <f t="shared" si="1"/>
+        <v>1.7368506081639978E-2</v>
+      </c>
+      <c r="D49" s="22">
         <f t="shared" si="2"/>
-        <v>188.74999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E49" s="22">
+        <f t="shared" si="3"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>5.2522734280466299</v>
-      </c>
       <c r="C50">
-        <f t="shared" si="2"/>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <f>-0.321792 * C49</f>
+        <v>-5.5890463090230921E-3</v>
+      </c>
+      <c r="D50" s="22">
+        <f>C50+$B$49</f>
+        <v>5.2348343418201067</v>
+      </c>
+      <c r="E50" s="22">
+        <f t="shared" si="3"/>
+        <v>187.69801005787716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>5.2337788454104652</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
-        <v>187.49999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="22">
+        <f t="shared" ref="C51:C85" si="4">-0.321792 * C50</f>
+        <v>1.7985103898731591E-3</v>
+      </c>
+      <c r="D51" s="22">
+        <f t="shared" ref="D51:D85" si="5">C51+$B$49</f>
+        <v>5.242221898519003</v>
+      </c>
+      <c r="E51" s="22">
+        <f t="shared" si="3"/>
+        <v>189.08977428829434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>5.2793893566625183</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
-        <v>196.25000000000009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="22">
+        <f t="shared" si="4"/>
+        <v>-5.7874625537806363E-4</v>
+      </c>
+      <c r="D52" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2398446418737512</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="shared" si="3"/>
+        <v>188.64079324884383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>5.2768383348709129</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
-        <v>195.75000000000009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="C53" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8623591501061787E-4</v>
+      </c>
+      <c r="D53" s="22">
+        <f t="shared" si="5"/>
+        <v>5.24060962404414</v>
+      </c>
+      <c r="E53" s="22">
+        <f t="shared" si="3"/>
+        <v>188.7851553024457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54">
-        <v>5.2377708666800027</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
-        <v>188.24999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="22">
+        <f t="shared" si="4"/>
+        <v>-5.9929227563096752E-5</v>
+      </c>
+      <c r="D54" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2403634589015669</v>
+      </c>
+      <c r="E54" s="22">
+        <f t="shared" si="3"/>
+        <v>188.7386886972389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>5.195730777772936</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
-        <v>180.50000000000009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9284745995984031E-5</v>
+      </c>
+      <c r="D55" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404426728751252</v>
+      </c>
+      <c r="E55" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75364003090425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56">
-        <v>5.2081190986298882</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
-        <v>182.75000000000006</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="22">
+        <f t="shared" si="4"/>
+        <v>-6.2056769835396936E-6</v>
+      </c>
+      <c r="D56" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404171824521457</v>
+      </c>
+      <c r="E56" s="22">
+        <f t="shared" si="3"/>
+        <v>188.74882868210287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57">
-        <v>5.2351112906442454</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="2"/>
-        <v>187.75000000000023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="C57" s="22">
+        <f t="shared" si="4"/>
+        <v>1.996937207887205E-6</v>
+      </c>
+      <c r="D57" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404253850663371</v>
+      </c>
+      <c r="E57" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75037692227343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58">
-        <v>5.2870036066477644</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="2"/>
-        <v>197.75000000000023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="C58" s="22">
+        <f t="shared" si="4"/>
+        <v>-6.4259841800043948E-7</v>
+      </c>
+      <c r="D58" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404227455307115</v>
+      </c>
+      <c r="E58" s="22">
+        <f t="shared" si="3"/>
+        <v>188.74987870958671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59">
-        <v>5.3242287483325379</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="2"/>
-        <v>205.25000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="22">
+        <f t="shared" si="4"/>
+        <v>2.0678303012519743E-7</v>
+      </c>
+      <c r="D59" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404235949121594</v>
+      </c>
+      <c r="E59" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75003903030006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
-        <v>5.3482972988530584</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="2"/>
-        <v>210.2500000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="C60" s="22">
+        <f t="shared" si="4"/>
+        <v>-6.6541124830047541E-8</v>
+      </c>
+      <c r="D60" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233215880049</v>
+      </c>
+      <c r="E60" s="22">
+        <f t="shared" si="3"/>
+        <v>188.7499874403623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61">
-        <v>5.3624651863717894</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="2"/>
-        <v>213.2500000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="22">
+        <f t="shared" si="4"/>
+        <v>2.1412401641310659E-8</v>
+      </c>
+      <c r="D61" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404234095415312</v>
+      </c>
+      <c r="E61" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75000404158999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62">
-        <v>5.4249500174814029</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="2"/>
-        <v>227.00000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="22">
+        <f t="shared" si="4"/>
+        <v>-6.89033954896064E-9</v>
+      </c>
+      <c r="D62" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233812387897</v>
+      </c>
+      <c r="E62" s="22">
+        <f t="shared" si="3"/>
+        <v>188.7499986994475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63">
-        <v>5.5012582105447283</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="2"/>
-        <v>245.00000000000031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2172561441391423E-9</v>
+      </c>
+      <c r="D63" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233903463853</v>
+      </c>
+      <c r="E63" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75000041850618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64">
-        <v>5.3729609095438029</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="2"/>
-        <v>215.50000000000009</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="C64" s="22">
+        <f t="shared" si="4"/>
+        <v>-7.1349528913482292E-10</v>
+      </c>
+      <c r="D64" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233874156345</v>
+      </c>
+      <c r="E64" s="22">
+        <f t="shared" si="3"/>
+        <v>188.74999986532697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65">
-        <v>5.5519901228970703</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="2"/>
-        <v>257.75000000000023</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="C65" s="22">
+        <f t="shared" si="4"/>
+        <v>2.2959707608127296E-10</v>
+      </c>
+      <c r="D65" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233883587263</v>
+      </c>
+      <c r="E65" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75000004333555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66">
-        <v>5.36480710781687</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="2"/>
-        <v>213.75000000000009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="C66" s="22">
+        <f t="shared" si="4"/>
+        <v>-7.3882502306344987E-11</v>
+      </c>
+      <c r="D66" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233880552473</v>
+      </c>
+      <c r="E66" s="22">
+        <f t="shared" si="3"/>
+        <v>188.74999998605387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67">
-        <v>5.3435297093695846</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C85" si="3">EXP(B67)</f>
-        <v>209.24999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="C67" s="22">
+        <f t="shared" si="4"/>
+        <v>2.3774798182163369E-11</v>
+      </c>
+      <c r="D67" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881529043</v>
+      </c>
+      <c r="E67" s="22">
+        <f t="shared" si="3"/>
+        <v>188.75000000448662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68">
-        <v>5.4082922197566088</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>223.25000000000009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="22">
+        <f t="shared" si="4"/>
+        <v>-7.6505398566347145E-12</v>
+      </c>
+      <c r="D68" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881214788</v>
+      </c>
+      <c r="E68" s="22">
+        <f t="shared" ref="E68:E85" si="6">EXP(D68)</f>
+        <v>188.74999999855507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69">
-        <v>5.516448376038702</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>248.74999999999994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="C69" s="22">
+        <f t="shared" si="4"/>
+        <v>2.4618825215461981E-12</v>
+      </c>
+      <c r="D69" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881315916</v>
+      </c>
+      <c r="E69" s="22">
+        <f t="shared" si="6"/>
+        <v>188.75000000046384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70">
-        <v>5.5529595849216182</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>258.00000000000023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="C70" s="22">
+        <f t="shared" si="4"/>
+        <v>-7.9221410037339425E-13</v>
+      </c>
+      <c r="D70" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881283373</v>
+      </c>
+      <c r="E70" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999984962</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71">
-        <v>5.6463298999081157</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>283.25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="22">
+        <f t="shared" si="4"/>
+        <v>2.5492815978735529E-13</v>
+      </c>
+      <c r="D71" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881293845</v>
+      </c>
+      <c r="E71" s="22">
+        <f t="shared" si="6"/>
+        <v>188.75000000004727</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72">
-        <v>5.6330022925951537</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>279.49999999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="22">
+        <f t="shared" si="4"/>
+        <v>-8.2033842394292643E-14</v>
+      </c>
+      <c r="D72" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881290478</v>
+      </c>
+      <c r="E72" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999998371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73">
-        <v>5.6294180593673389</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
-        <v>278.50000000000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="22">
+        <f t="shared" si="4"/>
+        <v>2.6397834211744219E-14</v>
+      </c>
+      <c r="D73" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291562</v>
+      </c>
+      <c r="E73" s="22">
+        <f t="shared" si="6"/>
+        <v>188.75000000000418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74">
-        <v>5.6305318686776777</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
-        <v>278.81036870662075</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="22">
+        <f t="shared" si="4"/>
+        <v>-8.4946118666655968E-15</v>
+      </c>
+      <c r="D74" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291207</v>
+      </c>
+      <c r="E74" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75">
-        <v>5.6301856501602607</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
-        <v>278.71385610231613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="22">
+        <f t="shared" si="4"/>
+        <v>2.7334981417980561E-15</v>
+      </c>
+      <c r="D75" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291322</v>
+      </c>
+      <c r="E75" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76">
-        <v>5.6302932597392292</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
-        <v>278.74384999681018</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="22">
+        <f t="shared" si="4"/>
+        <v>-8.7961783404548016E-16</v>
+      </c>
+      <c r="D76" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291287</v>
+      </c>
+      <c r="E76" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77">
-        <v>5.6302598122413547</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
-        <v>278.7345268683984</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="22">
+        <f t="shared" si="4"/>
+        <v>2.8305398205316316E-16</v>
+      </c>
+      <c r="D77" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E77" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78">
-        <v>5.6302702083925782</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
-        <v>278.73742464975379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="22">
+        <f t="shared" si="4"/>
+        <v>-9.1084506992851488E-17</v>
+      </c>
+      <c r="D78" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E78" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79">
-        <v>5.6302669770522042</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
-        <v>278.73652395571503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9310265674243666E-17</v>
+      </c>
+      <c r="D79" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E79" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B80">
-        <v>5.6302679814192693</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
-        <v>278.73680390964012</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="22">
+        <f t="shared" si="4"/>
+        <v>-9.4318090118462191E-18</v>
+      </c>
+      <c r="D80" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E80" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B81">
-        <v>5.6302676692412419</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>278.73671689414806</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="22">
+        <f t="shared" si="4"/>
+        <v>3.0350806855400187E-18</v>
+      </c>
+      <c r="D81" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E81" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="B82">
-        <v>5.6302677662726142</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>278.73674394035555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="22">
+        <f t="shared" si="4"/>
+        <v>-9.7666468396129379E-19</v>
+      </c>
+      <c r="D82" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E82" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B83">
-        <v>5.6302677361132609</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>278.73673553383571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="22">
+        <f t="shared" si="4"/>
+        <v>3.1428288198127266E-19</v>
+      </c>
+      <c r="D83" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E83" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="B84">
-        <v>5.6302677454874104</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>278.73673814675556</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="22">
+        <f t="shared" si="4"/>
+        <v>-1.011337171585177E-19</v>
+      </c>
+      <c r="D84" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E84" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B85">
-        <v>5.6302677425737304</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>278.73673733460595</v>
+      <c r="C85" s="22">
+        <f t="shared" si="4"/>
+        <v>3.2544021111873727E-20</v>
+      </c>
+      <c r="D85" s="22">
+        <f t="shared" si="5"/>
+        <v>5.2404233881291296</v>
+      </c>
+      <c r="E85" s="22">
+        <f t="shared" si="6"/>
+        <v>188.74999999999915</v>
       </c>
     </row>
   </sheetData>
